--- a/data/season/current_season/Triathlon Season_old.xlsx
+++ b/data/season/current_season/Triathlon Season_old.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -488,7 +488,7 @@
         <v xml:space="preserve">Sprint,  Standard </v>
       </c>
       <c r="F4" t="str">
-        <v>Sprint Aquabike, Standard Aquabike, Super Sprint</v>
+        <v>Sprint Aquabike, Aquabike, Super Sprint</v>
       </c>
       <c r="G4" t="str">
         <v>Eurocoast Triathlon Club</v>
@@ -508,7 +508,7 @@
         <v>no</v>
       </c>
       <c r="E5" t="str">
-        <v>Super Sprint, Sprint, Classic and Ultimate</v>
+        <v>Super Sprint, Sprint, Classic and Ironman 70.3</v>
       </c>
       <c r="F5" t="str">
         <v>Ultra and Aquabike</v>
@@ -577,7 +577,7 @@
         <v>Sprint</v>
       </c>
       <c r="F8" t="str">
-        <v>Super Sprint, Aquathlon, Teams</v>
+        <v>Super Sprint, Aquathon, Teams</v>
       </c>
       <c r="G8" t="str">
         <v>Yamba Multisport</v>
@@ -646,7 +646,7 @@
         <v>Sprint and Standard</v>
       </c>
       <c r="F11" t="str">
-        <v>Sprint Aquabike, Standard Aquabike, Super Sprint</v>
+        <v>Sprint Aquabike, Aquabike, Super Sprint</v>
       </c>
       <c r="G11" t="str">
         <v>Grafton Triathlon Club</v>
@@ -697,10 +697,10 @@
         <v>no</v>
       </c>
       <c r="E14" t="str">
-        <v>70.3 and Sprint</v>
+        <v>Ironman 70.3, Sprint</v>
       </c>
       <c r="F14" t="str">
-        <v>n/a</v>
+        <v>Aquabike</v>
       </c>
       <c r="G14" t="str">
         <v>Cronulla Triathlon Club</v>
@@ -723,7 +723,7 @@
         <v>Standard, Aquabike</v>
       </c>
       <c r="F15" t="str">
-        <v>Half Club, Sprint</v>
+        <v>Sprint</v>
       </c>
       <c r="G15" t="str">
         <v>Warringah Triathlon Club</v>
@@ -766,10 +766,10 @@
         <v>no</v>
       </c>
       <c r="E17" t="str">
-        <v>Long Aquathlon</v>
+        <v>Long Aqua</v>
       </c>
       <c r="F17" t="str">
-        <v>Super Sprint Aquathlon</v>
+        <v>Short Aqua</v>
       </c>
       <c r="G17" t="str">
         <v>Manly Vipers Triathlon Club</v>
@@ -812,7 +812,7 @@
         <v>no</v>
       </c>
       <c r="E19" t="str">
-        <v>Super Sprint, Sprint, Classic and Ultimate</v>
+        <v>Super Sprint, Sprint, Classic and Ironman 70.3</v>
       </c>
       <c r="F19" t="str">
         <v>Aquabike</v>
@@ -835,7 +835,7 @@
         <v>no</v>
       </c>
       <c r="E20" t="str">
-        <v>Sprint, Olympic</v>
+        <v>Sprint, Standard</v>
       </c>
       <c r="F20" t="str">
         <v>Super Sprint, Aquabike</v>
@@ -882,10 +882,10 @@
         <v>no</v>
       </c>
       <c r="E24" t="str">
-        <v>70.3 and Sprint</v>
+        <v>Ironman 70.3, Sprint</v>
       </c>
       <c r="F24" t="str">
-        <v>n/a</v>
+        <v>Aquabike</v>
       </c>
       <c r="G24" t="str">
         <v>Moore Performance Triathlon Club</v>
@@ -905,10 +905,10 @@
         <v>yes</v>
       </c>
       <c r="E25" t="str">
-        <v/>
+        <v>Standard, Aquabike</v>
       </c>
       <c r="F25" t="str">
-        <v>Half Club</v>
+        <v>Sprint</v>
       </c>
       <c r="G25" t="str">
         <v>TriMob</v>
@@ -951,10 +951,10 @@
         <v>no</v>
       </c>
       <c r="E27" t="str">
-        <v>Long Aquathlon</v>
+        <v>Long Aqua</v>
       </c>
       <c r="F27" t="str">
-        <v>Super Sprint Aquathlon</v>
+        <v>Short Aqua</v>
       </c>
       <c r="G27" t="str">
         <v>FilOz Triathlon Club</v>
@@ -974,7 +974,7 @@
         <v>no</v>
       </c>
       <c r="E28" t="str">
-        <v>Enticer, Sprint</v>
+        <v>Super Sprint, Sprint</v>
       </c>
       <c r="F28" t="str">
         <v>n/a</v>
@@ -997,7 +997,7 @@
         <v>no</v>
       </c>
       <c r="E29" t="str">
-        <v>Super Sprint, Sprint, Classic and Ultimate</v>
+        <v>Super Sprint, Sprint, Classic and Ironman 70.3</v>
       </c>
       <c r="F29" t="str">
         <v>Aquabike</v>
@@ -1020,7 +1020,7 @@
         <v>no</v>
       </c>
       <c r="E30" t="str">
-        <v>Sprint, Olympic</v>
+        <v>Sprint, Standard</v>
       </c>
       <c r="F30" t="str">
         <v>Super Sprint, Aquabike</v>
@@ -1069,9 +1069,70 @@
         <v>South West Sydney Triathlon Club</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Hunter League</v>
+      </c>
+      <c r="B36" t="str">
+        <v>1</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Stockton Island</v>
+      </c>
+      <c r="D36" t="str">
+        <v>No</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Sprint, Standard</v>
+      </c>
+      <c r="F36" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Central Coast Triathlon Club</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Hunter League</v>
+      </c>
+      <c r="B37" t="str">
+        <v>2</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Sparke Helmore Triathlon</v>
+      </c>
+      <c r="D37" t="str">
+        <v>No</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Sprint</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Super Sprint</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Forster Triathlon Club</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="G38" t="str">
+        <v>Singleton Triathlon Club</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="G39" t="str">
+        <v>Maitland Triathlon Club</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="G40" t="str">
+        <v>Newcastle Traithlon Club</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G40"/>
   </ignoredErrors>
 </worksheet>
 </file>